--- a/data/trans_dic/P0901-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>10,87%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,2; 18,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,69</t>
+          <t>6,28; 13,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,4; 33,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,52; 16,67</t>
+          <t>10,14; 16,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,02; 24,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,88</t>
+          <t>8,85; 13,31</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>21,07%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,02; 22,67</t>
+          <t>14,29; 21,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,68; 28,09</t>
+          <t>21,55; 27,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,34; 24,51</t>
+          <t>18,67; 23,84</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>16,88%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,74; 18,84</t>
+          <t>11,46; 18,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,8; 22,54</t>
+          <t>15,69; 22,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,84; 19,46</t>
+          <t>14,61; 19,27</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>20,22%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 18,18</t>
+          <t>12,65; 20,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 26,5</t>
+          <t>15,37; 26,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,19; 34,08</t>
+          <t>27,96; 37,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,29; 28,91</t>
+          <t>12,39; 25,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,66; 24,98</t>
+          <t>21,38; 27,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,42; 26,39</t>
+          <t>14,64; 24,21</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>10,25%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,6</t>
+          <t>4,78; 10,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,97</t>
+          <t>10,05; 16,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,32</t>
+          <t>8,46; 12,35</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>14,65%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,48; 16,66</t>
+          <t>9,26; 16,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,86; 20,54</t>
+          <t>13,9; 20,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,41; 17,36</t>
+          <t>12,26; 17,18</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>16,7%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,64; 18,9</t>
+          <t>12,21; 18,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,72; 25,11</t>
+          <t>8,76; 24,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,79</t>
+          <t>9,93; 20,02</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>13,95%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,83; 13,78</t>
+          <t>3,81; 12,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,28; 23,82</t>
+          <t>18,4; 23,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,97; 17,8</t>
+          <t>8,54; 16,96</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>16,11%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,83; 15,39</t>
+          <t>10,1; 14,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,37; 21,62</t>
+          <t>16,04; 20,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,17; 18,33</t>
+          <t>13,97; 17,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P0901-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,16</t>
+          <t>7,74; 15,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 18,5</t>
+          <t>10,31; 18,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,15</t>
+          <t>8,74; 17,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 13,02</t>
+          <t>6,25; 13,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,61; 25,7</t>
+          <t>14,88; 24,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,4; 33,49</t>
+          <t>22,1; 33,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,07; 31,75</t>
+          <t>20,81; 31,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 16,06</t>
+          <t>10,21; 16,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 18,57</t>
+          <t>12,13; 18,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 24,28</t>
+          <t>17,47; 24,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 22,55</t>
+          <t>16,31; 23,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,31</t>
+          <t>8,66; 13,26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 12,58</t>
+          <t>7,13; 12,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 14,37</t>
+          <t>8,28; 14,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 11,32</t>
+          <t>6,28; 11,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,29; 21,75</t>
+          <t>14,21; 21,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,02; 21,57</t>
+          <t>14,78; 21,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,44; 23,1</t>
+          <t>15,77; 22,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 20,14</t>
+          <t>13,33; 20,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,55; 27,82</t>
+          <t>21,34; 27,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 16,04</t>
+          <t>11,66; 16,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,8; 17,4</t>
+          <t>12,42; 17,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,9</t>
+          <t>10,57; 15,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,67; 23,84</t>
+          <t>18,85; 23,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 9,5</t>
+          <t>3,92; 9,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 16,65</t>
+          <t>8,92; 16,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 12,17</t>
+          <t>6,05; 11,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,46; 18,55</t>
+          <t>11,34; 18,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 17,9</t>
+          <t>10,46; 17,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 24,17</t>
+          <t>15,57; 24,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,0; 16,67</t>
+          <t>8,52; 16,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,69; 22,58</t>
+          <t>15,65; 22,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 12,65</t>
+          <t>7,99; 12,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 19,25</t>
+          <t>13,25; 19,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 13,31</t>
+          <t>8,26; 13,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,61; 19,27</t>
+          <t>14,67; 19,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,17</t>
+          <t>3,17; 8,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,65; 20,47</t>
+          <t>12,41; 20,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 21,36</t>
+          <t>13,35; 21,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,37; 26,02</t>
+          <t>15,65; 25,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,03; 20,56</t>
+          <t>12,64; 20,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 37,8</t>
+          <t>28,27; 37,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,57; 37,83</t>
+          <t>27,38; 37,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,39; 25,91</t>
+          <t>12,35; 26,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 13,28</t>
+          <t>8,66; 13,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,38; 27,52</t>
+          <t>21,37; 27,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,6; 28,29</t>
+          <t>21,51; 28,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 24,21</t>
+          <t>14,57; 24,47</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 11,49</t>
+          <t>4,54; 11,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,62; 17,62</t>
+          <t>8,59; 17,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 12,45</t>
+          <t>4,88; 12,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,62</t>
+          <t>4,8; 11,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,71; 17,19</t>
+          <t>7,9; 17,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,77; 31,0</t>
+          <t>19,15; 31,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 17,93</t>
+          <t>9,04; 17,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,05; 16,01</t>
+          <t>9,8; 15,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 12,99</t>
+          <t>7,23; 13,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,39; 22,96</t>
+          <t>15,56; 23,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 13,73</t>
+          <t>8,2; 14,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,46; 12,35</t>
+          <t>8,41; 12,57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 14,02</t>
+          <t>6,75; 14,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,91; 17,94</t>
+          <t>9,76; 17,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 21,92</t>
+          <t>12,66; 21,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,26; 16,34</t>
+          <t>9,44; 16,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,21; 21,71</t>
+          <t>12,85; 21,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,0; 21,57</t>
+          <t>12,76; 22,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,62; 30,17</t>
+          <t>18,36; 29,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,9; 20,54</t>
+          <t>13,87; 20,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,96; 16,85</t>
+          <t>10,97; 16,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,5; 18,88</t>
+          <t>12,36; 18,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,09; 24,63</t>
+          <t>17,36; 24,57</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,26; 17,18</t>
+          <t>12,5; 17,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,15</t>
+          <t>7,42; 12,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,07; 11,85</t>
+          <t>7,24; 11,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,62; 13,85</t>
+          <t>8,8; 14,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,21; 18,46</t>
+          <t>12,24; 18,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,43; 16,65</t>
+          <t>11,16; 16,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,94</t>
+          <t>13,02; 18,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,82; 24,3</t>
+          <t>17,71; 24,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,76; 24,8</t>
+          <t>9,34; 24,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,98; 13,64</t>
+          <t>10,19; 13,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,89; 14,68</t>
+          <t>11,03; 14,58</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,99; 18,05</t>
+          <t>14,11; 18,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 20,02</t>
+          <t>10,36; 20,1</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,74; 13,15</t>
+          <t>8,86; 13,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,91; 14,16</t>
+          <t>9,41; 14,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,86</t>
+          <t>5,13; 8,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,81; 12,42</t>
+          <t>3,68; 12,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,24; 21,11</t>
+          <t>15,13; 20,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,07; 21,72</t>
+          <t>16,22; 21,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,59; 17,09</t>
+          <t>11,99; 17,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,63</t>
+          <t>18,42; 23,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,74; 16,29</t>
+          <t>12,94; 16,44</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,39; 17,06</t>
+          <t>13,56; 17,35</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,21; 12,39</t>
+          <t>9,23; 12,62</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,54; 16,96</t>
+          <t>8,3; 16,94</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,14</t>
+          <t>8,07; 10,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,88; 13,36</t>
+          <t>11,01; 13,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,42; 11,61</t>
+          <t>9,49; 11,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,1; 14,58</t>
+          <t>10,31; 14,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,08; 17,67</t>
+          <t>15,01; 17,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,51; 22,31</t>
+          <t>19,46; 22,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,92; 20,93</t>
+          <t>18,1; 20,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,04; 20,88</t>
+          <t>15,27; 20,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,55</t>
+          <t>11,96; 13,66</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>15,63; 17,44</t>
+          <t>15,63; 17,46</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>14,07; 15,95</t>
+          <t>14,15; 15,96</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,97; 17,5</t>
+          <t>14,09; 17,3</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que hizo menos de lo que hubiera querido por problemas físicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>30157</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40940</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36513</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28268</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>51873</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>79346</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>75818</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>37056</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>82029</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>120285</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>112331</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>65324</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21121; 42446</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30398; 53848</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25661; 50977</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19466; 40782</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>38825; 64949</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>63480; 94806</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>60066; 90766</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29584; 46472</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64731; 99731</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>101663; 144183</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>95014; 135471</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>52034; 79713</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>46887</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>55636</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42702</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>91091</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>90890</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>99391</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>86560</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>126671</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>137777</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>155027</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>129262</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>217763</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35139; 62831</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>41867; 73166</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31537; 56254</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>73676; 111485</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>74501; 108478</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>82579; 118824</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>69726; 106946</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>109875; 142825</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>116216; 159587</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>127878; 177885</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>108424; 155395</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>194805; 244509</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19567</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>39817</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27498</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46013</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46086</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>67053</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41110</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66140</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>65652</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>106870</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>68608</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>112153</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12491; 29799</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28916; 54422</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19262; 37537</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>35830; 58709</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>35100; 59226</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53098; 82929</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28670; 54397</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>54530; 78113</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>52269; 84399</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>88092; 127309</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>54122; 85742</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>97507; 130234</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18418</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>59591</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>62944</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>62591</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60370</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>127915</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>125882</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>96650</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>78788</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>187506</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>188827</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>159241</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11384; 29618</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>46428; 78222</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>49382; 78734</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>48840; 78827</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>46938; 74445</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>109970; 147028</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>106048; 144564</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>58765; 124395</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>63229; 96523</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>163036; 209588</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>162917; 214257</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>114805; 192713</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15417</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>26695</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17363</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12967</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>25264</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>54769</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>29183</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26607</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>40682</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>81464</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>46546</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>39575</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9230; 23572</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18258; 37154</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10316; 26275</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8563; 20220</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16401; 36580</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>42057; 68711</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19765; 39028</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20345; 32981</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29729; 54305</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>67255; 99828</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>35263; 61384</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>32440; 48504</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>26784</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>37418</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>43702</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>33660</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>47525</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>48657</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>66479</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>43521</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>74309</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>86075</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>110181</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>77182</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>18273; 37914</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>26747; 48095</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>33314; 57511</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>25444; 44634</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>35738; 60541</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>35728; 62264</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>50149; 80998</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>35659; 52820</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>60194; 91146</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>68491; 104935</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>93088; 131742</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>65826; 90624</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>58951</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>61676</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>71804</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>92879</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>89153</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>110696</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>144634</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>153030</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>148104</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>172372</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>216437</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>245909</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>45621; 75134</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>47970; 78887</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>57783; 92639</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>76258; 113686</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>71197; 107361</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>90344; 131405</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>122419; 170039</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>79287; 206894</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>127653; 174455</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>149652; 197808</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>190168; 247796</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>152587; 295935</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>80237</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>89551</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>53175</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>81249</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>140973</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>155089</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>119652</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>148357</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>221209</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>244640</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>172827</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>229606</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>65908; 97094</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>73311; 112877</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>39967; 69291</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>34148; 116940</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>118517; 162286</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>133621; 178987</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>99092; 145473</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>132172; 167804</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>197588; 251135</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>217295; 278109</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>148194; 202542</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>136575; 278835</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1264</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1790</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>296417</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>411325</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>355699</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>448719</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>552134</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>742915</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>689319</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>698033</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>848551</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1154239</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1045018</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1146752</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>264385; 331126</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>377124; 452238</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>322135; 392663</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>356462; 503192</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>507095; 596362</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>692353; 785922</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>641640; 740543</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>559095; 760672</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>795998; 909314</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1091513; 1219392</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>981712; 1107494</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1003297; 1231605</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>